--- a/アプリパス一覧.xlsx
+++ b/アプリパス一覧.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tatsuro Wakamimya\Documents\sourcetree\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="5928" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スマホ画面アプリ" sheetId="1" r:id="rId1"/>
     <sheet name="PC" sheetId="2" r:id="rId2"/>
-    <sheet name="過去参照" sheetId="3" r:id="rId3"/>
+    <sheet name="HP" sheetId="4" r:id="rId3"/>
+    <sheet name="過去参照" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="199">
   <si>
     <t>最適化ツール_ウィジット</t>
     <rPh sb="0" eb="3">
@@ -947,6 +948,37 @@
   </si>
   <si>
     <t>　取引 fqxjx219</t>
+  </si>
+  <si>
+    <t>ディズニー</t>
+  </si>
+  <si>
+    <t>STEAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fqxjx219 / wakame25</t>
+  </si>
+  <si>
+    <t>さくら観光</t>
+  </si>
+  <si>
+    <t>fqxjx219 (fqxjx219@gmail.com) / wakame25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http:// izumi-ds.mond.jp</t>
+  </si>
+  <si>
+    <t>ibuki777</t>
+  </si>
+  <si>
+    <t>http://izumi-ds.mond.jp/wordpress/</t>
+  </si>
+  <si>
+    <t>rookrook</t>
+  </si>
+  <si>
+    <t>初期DB名:LAA0771674-ul66zt</t>
   </si>
 </sst>
 </file>
@@ -1342,26 +1374,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1372,7 +1404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1415,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1397,17 +1429,17 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1415,7 +1447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1429,17 +1461,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1447,7 +1479,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1461,13 +1493,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,7 +1513,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1489,24 +1521,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1518,7 +1550,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1527,7 +1559,7 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1535,12 +1567,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1549,22 +1581,22 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1575,7 +1607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1589,37 +1621,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>51</v>
       </c>
@@ -1633,7 +1665,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C39" s="1" t="s">
         <v>53</v>
       </c>
@@ -1644,7 +1676,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1655,7 +1687,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1666,22 +1698,22 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>64</v>
       </c>
@@ -1689,7 +1721,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C46" s="1" t="s">
         <v>66</v>
       </c>
@@ -1703,22 +1735,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C47" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C48" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C49" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
@@ -1732,7 +1764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C51" s="1" t="s">
         <v>76</v>
       </c>
@@ -1743,7 +1775,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C52" s="1" t="s">
         <v>79</v>
       </c>
@@ -1754,7 +1786,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C53" s="3" t="s">
         <v>81</v>
       </c>
@@ -1765,22 +1797,22 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C54" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C55" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C56" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C57" s="1" t="s">
         <v>89</v>
       </c>
@@ -1791,7 +1823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C58" s="1" t="s">
         <v>91</v>
       </c>
@@ -1802,7 +1834,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C59" s="1" t="s">
         <v>92</v>
       </c>
@@ -1813,12 +1845,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C60" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="1" t="s">
         <v>95</v>
       </c>
@@ -1832,12 +1864,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C62" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C63" s="1" t="s">
         <v>98</v>
       </c>
@@ -1848,7 +1880,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C64" s="1" t="s">
         <v>99</v>
       </c>
@@ -1862,12 +1894,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C65" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C66" s="1" t="s">
         <v>102</v>
       </c>
@@ -1878,7 +1910,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C67" s="3" t="s">
         <v>103</v>
       </c>
@@ -1889,7 +1921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C68" s="1" t="s">
         <v>105</v>
       </c>
@@ -1900,7 +1932,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C69" s="1" t="s">
         <v>106</v>
       </c>
@@ -1908,7 +1940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C70" s="3" t="s">
         <v>107</v>
       </c>
@@ -1916,7 +1948,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C71" s="1" t="s">
         <v>108</v>
       </c>
@@ -1927,12 +1959,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C72" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C73" s="1" t="s">
         <v>111</v>
       </c>
@@ -1943,7 +1975,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B74" s="1" t="s">
         <v>113</v>
       </c>
@@ -1957,7 +1989,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C75" s="1" t="s">
         <v>115</v>
       </c>
@@ -1968,37 +2000,37 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C77" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C78" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C79" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C80" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C81" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C82" s="1" t="s">
         <v>124</v>
       </c>
@@ -2009,12 +2041,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C83" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C84" s="1" t="s">
         <v>126</v>
       </c>
@@ -2025,42 +2057,42 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C85" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C86" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C87" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C88" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C89" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C90" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C91" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
         <v>135</v>
       </c>
@@ -2074,22 +2106,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C93" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C94" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C95" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C96" s="1" t="s">
         <v>140</v>
       </c>
@@ -2100,22 +2132,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C97" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C98" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C99" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C100" s="1" t="s">
         <v>145</v>
       </c>
@@ -2126,17 +2158,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C101" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C102" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C103" s="1" t="s">
         <v>149</v>
       </c>
@@ -2147,13 +2179,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C104" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E104" s="4"/>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C106" s="1" t="s">
         <v>151</v>
       </c>
@@ -2164,17 +2196,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E107" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E108" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C109" s="1" t="s">
         <v>155</v>
       </c>
@@ -2185,7 +2217,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C110" s="1" t="s">
         <v>157</v>
       </c>
@@ -2205,20 +2237,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9DDBC9-BA25-4B44-BCDA-7FBA8481486D}">
-  <dimension ref="B2:H2"/>
+  <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
     <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>158</v>
       </c>
@@ -2227,6 +2259,30 @@
       </c>
       <c r="H2" s="5">
         <v>43122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2237,6 +2293,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870D5FE1-DED9-45A2-A496-6B5BD12701BB}">
+  <dimension ref="B2:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DF4D2-FE74-4ECD-897B-423B4C224BF8}">
   <dimension ref="B2:B45"/>
   <sheetViews>
@@ -2244,152 +2350,152 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B28" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>188</v>
       </c>

--- a/アプリパス一覧.xlsx
+++ b/アプリパス一覧.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tatsuro Wakamimya\Documents\sourcetree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_disabled\source tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="5928" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="スマホ画面アプリ" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="HP" sheetId="4" r:id="rId3"/>
     <sheet name="過去参照" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="205">
   <si>
     <t>最適化ツール_ウィジット</t>
     <rPh sb="0" eb="3">
@@ -473,10 +473,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>679 / 0795400 / 4554</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>三井住友カード</t>
     <rPh sb="0" eb="2">
       <t>ミツイ</t>
@@ -979,13 +975,40 @@
   </si>
   <si>
     <t>初期DB名:LAA0771674-ul66zt</t>
+  </si>
+  <si>
+    <t>Pearson</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wakamiya-tatsuro@mxi.nes.nec.co.jp/Wakame25</t>
+  </si>
+  <si>
+    <t>https://wsr.pearsonvue.com/testtaker/registration/Dashboard/ORACLE/1483604</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://brm-certview.oracle.com/pls/certview/ocp_interface.home</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P0148503/Fqxjx219</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>679 / 7595400 / 4554</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1016,6 +1039,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1034,12 +1066,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1058,8 +1093,12 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1371,29 +1410,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1404,7 +1443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1454,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1429,17 +1468,17 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1447,7 +1486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7">
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1458,20 +1497,20 @@
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1479,7 +1518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,16 +1529,16 @@
         <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1510,10 +1549,10 @@
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1521,24 +1560,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5">
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1550,7 +1589,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5">
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1559,7 +1598,7 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1567,12 +1606,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5">
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5">
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1581,22 +1620,22 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5">
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5">
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5">
       <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5">
       <c r="C30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1607,7 +1646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5">
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1621,37 +1660,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5">
       <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:6">
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:6">
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:6">
       <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:6">
       <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:6">
       <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:6">
       <c r="B38" s="1" t="s">
         <v>51</v>
       </c>
@@ -1665,7 +1704,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:6">
       <c r="C39" s="1" t="s">
         <v>53</v>
       </c>
@@ -1676,7 +1715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:6">
       <c r="C40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1687,7 +1726,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:6">
       <c r="C41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1698,22 +1737,22 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:6">
       <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:6">
       <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:6">
       <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6">
       <c r="B45" s="1" t="s">
         <v>64</v>
       </c>
@@ -1721,7 +1760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:6">
       <c r="C46" s="1" t="s">
         <v>66</v>
       </c>
@@ -1735,22 +1774,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:6">
       <c r="C47" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:6">
       <c r="C48" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:6">
       <c r="C49" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:6">
       <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
@@ -1764,7 +1803,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:6">
       <c r="C51" s="1" t="s">
         <v>76</v>
       </c>
@@ -1772,90 +1811,90 @@
         <v>77</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="C52" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="1" t="s">
+    </row>
+    <row r="53" spans="2:6">
+      <c r="C53" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="1" t="s">
+    </row>
+    <row r="54" spans="2:6">
+      <c r="C54" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C54" s="3" t="s">
+    <row r="55" spans="2:6">
+      <c r="C55" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C55" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:6">
       <c r="C56" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="C57" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="4" t="s">
+    </row>
+    <row r="58" spans="2:6">
+      <c r="C58" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="C59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="1" t="s">
+    </row>
+    <row r="60" spans="2:6">
+      <c r="C60" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C60" s="3" t="s">
+    <row r="61" spans="2:6">
+      <c r="B61" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>4</v>
@@ -1864,25 +1903,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:6">
       <c r="C62" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="C63" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="C64" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C64" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>4</v>
@@ -1891,213 +1930,213 @@
         <v>20</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="C65" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C65" s="1" t="s">
+    <row r="66" spans="2:6">
+      <c r="C66" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="C67" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="4" t="s">
+    </row>
+    <row r="68" spans="2:6">
+      <c r="C68" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="C69" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C69" s="1" t="s">
+      <c r="F69" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="C70" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C70" s="3" t="s">
+      <c r="F70" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="C71" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="4" t="s">
+    </row>
+    <row r="72" spans="2:6">
+      <c r="C72" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C72" s="1" t="s">
+    <row r="73" spans="2:6">
+      <c r="C73" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="1" t="s">
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="C75" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E75" s="1" t="s">
+    </row>
+    <row r="76" spans="2:6">
+      <c r="E76" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E76" s="1" t="s">
+    <row r="77" spans="2:6">
+      <c r="C77" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C77" s="3" t="s">
+    <row r="78" spans="2:6">
+      <c r="C78" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C78" s="1" t="s">
+    <row r="79" spans="2:6">
+      <c r="C79" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C79" s="1" t="s">
+    <row r="80" spans="2:6">
+      <c r="C80" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C80" s="1" t="s">
+    <row r="81" spans="2:5">
+      <c r="C81" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C81" s="1" t="s">
+    <row r="82" spans="2:5">
+      <c r="C82" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="C83" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C83" s="3" t="s">
+    </row>
+    <row r="84" spans="2:5">
+      <c r="C84" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="1" t="s">
+    </row>
+    <row r="85" spans="2:5">
+      <c r="C85" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C85" s="1" t="s">
+    <row r="86" spans="2:5">
+      <c r="C86" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C86" s="1" t="s">
+    <row r="87" spans="2:5">
+      <c r="C87" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C87" s="1" t="s">
+    <row r="88" spans="2:5">
+      <c r="C88" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C88" s="1" t="s">
+    <row r="89" spans="2:5">
+      <c r="C89" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C89" s="1" t="s">
+    <row r="90" spans="2:5">
+      <c r="C90" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C90" s="1" t="s">
+    <row r="91" spans="2:5">
+      <c r="C91" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C91" s="1" t="s">
+    <row r="92" spans="2:5">
+      <c r="B92" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>4</v>
@@ -2106,71 +2145,71 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:5">
       <c r="C93" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="C94" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C94" s="1" t="s">
+    <row r="95" spans="2:5">
+      <c r="C95" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C95" s="1" t="s">
+    <row r="96" spans="2:5">
+      <c r="C96" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5">
+      <c r="C97" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="4" t="s">
+    </row>
+    <row r="98" spans="3:5">
+      <c r="C98" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5">
+      <c r="C99" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5">
+      <c r="C100" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C97" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C98" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C99" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="1" t="s">
+    </row>
+    <row r="101" spans="3:5">
+      <c r="C101" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C101" s="1" t="s">
+    <row r="102" spans="3:5">
+      <c r="C102" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C102" s="1" t="s">
+    <row r="103" spans="3:5">
+      <c r="C103" s="1" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C103" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>4</v>
@@ -2179,47 +2218,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="3:5">
       <c r="C104" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="106" spans="3:5">
+      <c r="C106" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="1" t="s">
+    </row>
+    <row r="107" spans="3:5">
+      <c r="E107" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E107" s="1" t="s">
+    <row r="108" spans="3:5">
+      <c r="E108" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="E108" s="1" t="s">
+    <row r="109" spans="3:5">
+      <c r="C109" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="4" t="s">
+    </row>
+    <row r="110" spans="3:5">
+      <c r="C110" s="1" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.45">
-      <c r="C110" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>4</v>
@@ -2236,53 +2275,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9DDBC9-BA25-4B44-BCDA-7FBA8481486D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
     <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="H2" s="5">
         <v>43122</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2293,211 +2332,237 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870D5FE1-DED9-45A2-A496-6B5BD12701BB}">
-  <dimension ref="B2:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="2:8">
+      <c r="B5" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="2:8">
+      <c r="B7" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="2:8">
+      <c r="B8" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="2:8">
+      <c r="B11" s="1" t="s">
         <v>198</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="H11" r:id="rId1"/>
+    <hyperlink ref="H12" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7DF4D2-FE74-4ECD-897B-423B4C224BF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B45" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/アプリパス一覧.xlsx
+++ b/アプリパス一覧.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="206">
   <si>
     <t>最適化ツール_ウィジット</t>
     <rPh sb="0" eb="3">
@@ -1001,6 +1001,10 @@
   </si>
   <si>
     <t>679 / 7595400 / 4554</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fqxjx219@yahoo.co.jp / 252525　tarookyu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1413,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1545,8 +1549,8 @@
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>20</v>
+      <c r="E16" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>85</v>

--- a/アプリパス一覧.xlsx
+++ b/アプリパス一覧.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="スマホ画面アプリ" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="208">
   <si>
     <t>最適化ツール_ウィジット</t>
     <rPh sb="0" eb="3">
@@ -1005,6 +1005,23 @@
   </si>
   <si>
     <t>fqxjx219@yahoo.co.jp / 252525　tarookyu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千栄交通</t>
+    <rPh sb="0" eb="1">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>サカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fqxjx219 / tarookyu</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1417,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2280,10 +2297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2326,6 +2343,14 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2572,5 +2597,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/アプリパス一覧.xlsx
+++ b/アプリパス一覧.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="スマホ画面アプリ" sheetId="1" r:id="rId1"/>
@@ -1004,10 +1004,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fqxjx219@yahoo.co.jp / 252525　tarookyu</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>千栄交通</t>
     <rPh sb="0" eb="1">
       <t>セン</t>
@@ -1022,6 +1018,33 @@
   </si>
   <si>
     <t>fqxjx219 / tarookyu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fqxjx219@yahoo.co.jp(wakame_debris) / </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>252525</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　tarookyu</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1095,7 +1118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,6 +1138,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1434,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1566,8 +1592,8 @@
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>205</v>
+      <c r="E16" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>85</v>
@@ -2299,7 +2325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2347,10 +2373,10 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/アプリパス一覧.xlsx
+++ b/アプリパス一覧.xlsx
@@ -346,10 +346,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>163799966 / fqxjx219</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>支店/口座番号/PASS</t>
     <rPh sb="0" eb="2">
       <t>シテン</t>
@@ -1047,12 +1043,16 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>163799966 / Tarookyu_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,11 +1460,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
@@ -1474,12 +1474,12 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1515,17 +1515,17 @@
         <v>252525</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1544,20 +1544,20 @@
         <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1576,16 +1576,16 @@
         <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,13 +1593,13 @@
         <v>4</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1607,24 +1607,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1653,12 +1653,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C25" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1667,22 +1667,22 @@
       </c>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C27" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C30" s="1" t="s">
         <v>41</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1707,37 +1707,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>51</v>
       </c>
@@ -1745,24 +1745,24 @@
         <v>52</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C39" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1770,10 +1770,10 @@
         <v>4</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1781,167 +1781,167 @@
         <v>4</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C46" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="1" t="s">
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C48" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C49" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="C47" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="C48" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="C49" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="1" t="s">
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C53" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="C53" s="3" t="s">
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="1" t="s">
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C54" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
-      <c r="C54" s="3" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C55" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
-      <c r="C55" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C56" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C57" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="4" t="s">
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C58" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="1" t="s">
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C60" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
-      <c r="C60" s="3" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B61" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>4</v>
@@ -1950,25 +1950,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C62" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C63" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C64" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="C64" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>4</v>
@@ -1977,213 +1977,213 @@
         <v>20</v>
       </c>
       <c r="F64" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C65" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="2:6">
-      <c r="C65" s="1" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C66" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C67" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="4" t="s">
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C68" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C69" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="C69" s="1" t="s">
+      <c r="F69" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C70" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="C70" s="3" t="s">
+      <c r="F70" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C71" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="4" t="s">
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C72" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="2:6">
-      <c r="C72" s="1" t="s">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C73" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="1" t="s">
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B74" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C75" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E75" s="1" t="s">
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E76" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="2:6">
-      <c r="E76" s="1" t="s">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C77" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="2:6">
-      <c r="C77" s="3" t="s">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C78" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="78" spans="2:6">
-      <c r="C78" s="1" t="s">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C79" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="2:6">
-      <c r="C79" s="1" t="s">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C80" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="2:6">
-      <c r="C80" s="1" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C81" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
-      <c r="C81" s="1" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C82" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C83" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="C83" s="3" t="s">
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C84" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="1" t="s">
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C85" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
-      <c r="C85" s="1" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C86" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
-      <c r="C86" s="1" t="s">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C87" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
-      <c r="C87" s="1" t="s">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C88" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
-      <c r="C88" s="1" t="s">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C89" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
-      <c r="C89" s="1" t="s">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C90" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
-      <c r="C90" s="1" t="s">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C91" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
-      <c r="C91" s="1" t="s">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B92" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>4</v>
@@ -2192,71 +2192,71 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.4">
       <c r="C93" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C94" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
-      <c r="C94" s="1" t="s">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C95" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
-      <c r="C95" s="1" t="s">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C96" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C97" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E96" s="4" t="s">
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C98" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C99" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C100" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="97" spans="3:5">
-      <c r="C97" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5">
-      <c r="C98" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5">
-      <c r="C99" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5">
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="1" t="s">
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C101" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="3:5">
-      <c r="C101" s="1" t="s">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C102" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="3:5">
-      <c r="C102" s="1" t="s">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C103" s="1" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5">
-      <c r="C103" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>4</v>
@@ -2265,47 +2265,47 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="3:5">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C104" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C106" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="106" spans="3:5">
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="1" t="s">
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E107" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="107" spans="3:5">
-      <c r="E107" s="1" t="s">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E108" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="3:5">
-      <c r="E108" s="1" t="s">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C109" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="109" spans="3:5">
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="4" t="s">
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C110" s="1" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5">
-      <c r="C110" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>4</v>
@@ -2329,54 +2329,54 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
     <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="H2" s="5">
         <v>43122</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2394,61 +2394,61 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
-      <c r="B3" s="1" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="2:8" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="C12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2470,154 +2470,154 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B38" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="1" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B40" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="1" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B42" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="1" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B44" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="1" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/アプリパス一覧.xlsx
+++ b/アプリパス一覧.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="209">
   <si>
     <t>最適化ツール_ウィジット</t>
     <rPh sb="0" eb="3">
@@ -1045,6 +1045,10 @@
   </si>
   <si>
     <t>163799966 / Tarookyu_5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fqxjx219@gmail.com / tarookyu00</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1118,7 +1122,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1141,6 +1145,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1460,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1909,15 +1916,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="C58" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>88</v>
+      <c r="E58" s="8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.4">
@@ -2316,8 +2323,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E58" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/アプリパス一覧.xlsx
+++ b/アプリパス一覧.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_disabled\source tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sourcetree\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB92AB84-5662-4CBF-8A3F-99AF0896772B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スマホ画面アプリ" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="210">
   <si>
     <t>最適化ツール_ウィジット</t>
     <rPh sb="0" eb="3">
@@ -1051,11 +1052,15 @@
     <t>fqxjx219@gmail.com / tarookyu00</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>tengtong25_town</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1464,10 +1469,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -2324,7 +2329,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E58" r:id="rId1"/>
+    <hyperlink ref="E58" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2332,11 +2337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2346,15 +2351,23 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>157</v>
       </c>
       <c r="H2" s="5">
         <v>43122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="F3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="5">
+        <v>44091</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
@@ -2391,13 +2404,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1E7B9A81-31EF-4929-8B39-79E95D65E20D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2464,8 +2480,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H11" r:id="rId1"/>
-    <hyperlink ref="H12" r:id="rId2"/>
+    <hyperlink ref="H11" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="H12" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2473,7 +2489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:B45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/アプリパス一覧.xlsx
+++ b/アプリパス一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sourcetree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB92AB84-5662-4CBF-8A3F-99AF0896772B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B497687-2447-4B53-89F7-F23A367B3808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14355" yWindow="15" windowWidth="14445" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スマホ画面アプリ" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="211">
   <si>
     <t>最適化ツール_ウィジット</t>
     <rPh sb="0" eb="3">
@@ -1054,6 +1054,10 @@
   </si>
   <si>
     <t>tengtong25_town</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tangteng25_town</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2338,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:H9"/>
+  <dimension ref="B2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2371,34 +2375,42 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="5">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>205</v>
       </c>
     </row>

--- a/アプリパス一覧.xlsx
+++ b/アプリパス一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sourcetree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B497687-2447-4B53-89F7-F23A367B3808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7884EB88-1C9F-406D-9923-AF3B26A1D453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="15" windowWidth="14445" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スマホ画面アプリ" sheetId="1" r:id="rId1"/>
@@ -18,17 +18,23 @@
     <sheet name="HP" sheetId="4" r:id="rId3"/>
     <sheet name="過去参照" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="215">
   <si>
     <t>最適化ツール_ウィジット</t>
     <rPh sb="0" eb="3">
@@ -1058,6 +1064,31 @@
   </si>
   <si>
     <t>tangteng25_town</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>往信SBIネット銀行</t>
+    <rPh sb="0" eb="2">
+      <t>オウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1370@0732809 / fqxjx219</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーネーム/ WEBログインパスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEB取引パスワード</t>
+    <rPh sb="3" eb="5">
+      <t>トリヒキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1131,7 +1162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,6 +1188,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1728,32 +1762,32 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C35" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>51</v>
       </c>
@@ -1766,8 +1800,11 @@
       <c r="E38" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F38" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="18.75" x14ac:dyDescent="0.4">
       <c r="C39" s="1" t="s">
         <v>53</v>
       </c>
@@ -1777,8 +1814,14 @@
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G39" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C40" s="1" t="s">
         <v>54</v>
       </c>
@@ -1788,8 +1831,14 @@
       <c r="E40" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="G40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C41" s="1" t="s">
         <v>55</v>
       </c>
@@ -1800,22 +1849,22 @@
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C43" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C44" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" s="1" t="s">
         <v>63</v>
       </c>
@@ -1823,7 +1872,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C46" s="1" t="s">
         <v>65</v>
       </c>
@@ -1837,12 +1886,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C47" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C48" s="1" t="s">
         <v>67</v>
       </c>
@@ -2344,7 +2393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
